--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/011_队员表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/011_队员表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521B2D28-FA6F-4029-AB39-7EFE7F4F9EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44703A9-D7A6-4D9B-B1BD-85D9E1962A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role|队员表" sheetId="4" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/011_队员表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/011_队员表.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44703A9-D7A6-4D9B-B1BD-85D9E1962A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F66FF4-0040-47C5-82FB-C4FFEC20AE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Role|队员表" sheetId="4" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="193">
   <si>
     <t>角色id</t>
   </si>
@@ -113,9 +113,6 @@
     <t>名字</t>
   </si>
   <si>
-    <t>是否显示</t>
-  </si>
-  <si>
     <t>别名</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>appear</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -248,9 +242,6 @@
     <t>Katherine</t>
   </si>
   <si>
-    <t>hero_11</t>
-  </si>
-  <si>
     <t>char_kaiselin02</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>Nie Fei</t>
   </si>
   <si>
-    <t>hero_12</t>
-  </si>
-  <si>
     <t>char_niezong</t>
   </si>
   <si>
@@ -282,9 +270,6 @@
   </si>
   <si>
     <t>shannon</t>
-  </si>
-  <si>
-    <t>hero_13</t>
   </si>
   <si>
     <r>
@@ -333,9 +318,6 @@
   </si>
   <si>
     <t>Tu Shan Ao</t>
-  </si>
-  <si>
-    <t>hero_15</t>
   </si>
   <si>
     <t>char_tushanao</t>
@@ -728,12 +710,42 @@
   <si>
     <t>{角色动作,,1005}{角色表情,,10040;20040;}{3}{角色动作,niefei,1007}{角色表情,niefei,10050;20050;}{2}{角色动作,niefei,1019}{角色表情,niefei,10100;20100;}{8}</t>
   </si>
+  <si>
+    <t>hero_11</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_12</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_13</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否显示</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>hero_15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>少女</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>凯瑟琳1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,6 +803,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -799,11 +818,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -827,7 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39939573351237523"/>
+        <fgColor theme="3" tint="0.39942625202185128"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,12 +879,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39835810419019135"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="63"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -858,6 +886,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39838862269966735"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,14 +937,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,29 +987,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -983,17 +1005,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1051,7 +1094,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,9 +1127,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,6 +1179,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1296,10 +1373,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1323,183 +1400,183 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="K2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="O2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="S2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="T2" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="P3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="R3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" s="24" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
@@ -1507,28 +1584,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>45</v>
+      <c r="I4" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1541,35 +1618,35 @@
       </c>
       <c r="Q4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="25"/>
+      <c r="T4" s="24"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>54</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1582,35 +1659,35 @@
       </c>
       <c r="Q5" s="5"/>
       <c r="S5" s="5"/>
-      <c r="T5" s="25"/>
+      <c r="T5" s="24"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>57</v>
+      <c r="D6" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>52</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1623,35 +1700,35 @@
       </c>
       <c r="Q6" s="5"/>
       <c r="S6" s="5"/>
-      <c r="T6" s="25"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>63</v>
+      <c r="D7" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1664,35 +1741,35 @@
       </c>
       <c r="Q7" s="5"/>
       <c r="S7" s="5"/>
-      <c r="T7" s="25"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>68</v>
+      <c r="D8" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>190</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1705,35 +1782,35 @@
       </c>
       <c r="Q8" s="5"/>
       <c r="S8" s="5"/>
-      <c r="T8" s="25"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>73</v>
+      <c r="D9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>74</v>
+        <v>65</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1746,10 +1823,92 @@
       </c>
       <c r="Q9" s="5"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="25"/>
+      <c r="T9" s="24"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="24"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="H11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1760,8 +1919,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1773,62 +1932,62 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1839,7 +1998,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1859,7 +2018,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1879,7 +2038,7 @@
         <v>300</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1899,7 +2058,7 @@
         <v>500</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" s="13">
         <v>2</v>
@@ -1919,7 +2078,7 @@
         <v>500</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D8" s="13">
         <v>2</v>
@@ -1939,7 +2098,7 @@
         <v>500</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D9" s="13">
         <v>2</v>
@@ -1959,7 +2118,7 @@
         <v>500</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D10" s="13">
         <v>2</v>
@@ -1979,7 +2138,7 @@
         <v>500</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D11" s="13">
         <v>2</v>
@@ -1999,7 +2158,7 @@
         <v>500</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D12" s="13">
         <v>2</v>
@@ -2019,7 +2178,7 @@
         <v>500</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -2039,7 +2198,7 @@
         <v>500</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -2059,7 +2218,7 @@
         <v>500</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -2079,7 +2238,7 @@
         <v>500</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2099,7 +2258,7 @@
         <v>500</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -2119,7 +2278,7 @@
         <v>500</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -2139,7 +2298,7 @@
         <v>500</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -2159,7 +2318,7 @@
         <v>500</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2179,7 +2338,7 @@
         <v>500</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2199,7 +2358,7 @@
         <v>500</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>3</v>
@@ -2219,7 +2378,7 @@
         <v>500</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2232,7 +2391,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -2259,111 +2418,111 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -2395,49 +2554,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" t="s">
         <v>111</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" t="s">
-        <v>112</v>
-      </c>
-      <c r="N1" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" t="s">
-        <v>118</v>
-      </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -2452,40 +2611,40 @@
         <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G2">
         <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M2">
         <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -2503,40 +2662,40 @@
         <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M3">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O3" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -2554,40 +2713,40 @@
         <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G4">
         <v>4.5</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L4" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M4">
         <v>6</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P4">
         <v>4</v>
@@ -2607,40 +2766,40 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G5">
         <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J5">
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M5">
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P5">
         <v>6</v>
@@ -2660,40 +2819,40 @@
         <v>122</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G6">
         <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J6">
         <v>6</v>
       </c>
       <c r="K6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M6">
         <v>6</v>
       </c>
       <c r="N6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -2713,40 +2872,40 @@
         <v>123</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J7">
         <v>6</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7">
         <v>6</v>
       </c>
       <c r="N7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="O7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -2766,40 +2925,40 @@
         <v>131</v>
       </c>
       <c r="D8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" t="s">
         <v>146</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
         <v>152</v>
       </c>
-      <c r="F8" t="s">
+      <c r="O8" t="s">
         <v>153</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I8" t="s">
-        <v>155</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8">
-        <v>6</v>
-      </c>
-      <c r="N8" t="s">
-        <v>158</v>
-      </c>
-      <c r="O8" t="s">
-        <v>159</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -2819,40 +2978,40 @@
         <v>132</v>
       </c>
       <c r="D9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" t="s">
         <v>146</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="L9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
         <v>152</v>
       </c>
-      <c r="F9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>156</v>
-      </c>
-      <c r="L9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M9">
-        <v>6</v>
-      </c>
-      <c r="N9" t="s">
-        <v>158</v>
-      </c>
       <c r="O9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -2872,40 +3031,40 @@
         <v>133</v>
       </c>
       <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
         <v>146</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I10" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>150</v>
+      </c>
+      <c r="L10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10" t="s">
         <v>152</v>
       </c>
-      <c r="F10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>156</v>
-      </c>
-      <c r="L10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M10">
-        <v>6</v>
-      </c>
-      <c r="N10" t="s">
-        <v>158</v>
-      </c>
       <c r="O10" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="P10">
         <v>6</v>
@@ -2925,40 +3084,40 @@
         <v>141</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G11">
         <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J11">
         <v>6</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M11">
         <v>6</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P11">
         <v>5</v>
@@ -2978,40 +3137,40 @@
         <v>142</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G12">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J12">
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M12">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P12">
         <v>5</v>
@@ -3031,40 +3190,40 @@
         <v>143</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J13">
         <v>6</v>
       </c>
       <c r="K13" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M13">
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P13">
         <v>4</v>
@@ -3084,40 +3243,40 @@
         <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I14" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J14">
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M14">
         <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P14">
         <v>5</v>
@@ -3137,40 +3296,40 @@
         <v>152</v>
       </c>
       <c r="D15" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G15">
         <v>6</v>
       </c>
       <c r="H15" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I15" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J15">
         <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M15">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P15">
         <v>5</v>
@@ -3190,40 +3349,40 @@
         <v>153</v>
       </c>
       <c r="D16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J16">
         <v>6</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M16">
         <v>6</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P16">
         <v>4</v>
@@ -3243,40 +3402,40 @@
         <v>161</v>
       </c>
       <c r="D17" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G17">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J17">
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M17">
         <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="P17">
         <v>5</v>
@@ -3296,40 +3455,40 @@
         <v>162</v>
       </c>
       <c r="D18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G18">
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I18" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J18">
         <v>6</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="M18">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="P18">
         <v>5</v>
@@ -3349,40 +3508,40 @@
         <v>163</v>
       </c>
       <c r="D19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G19">
         <v>6</v>
       </c>
       <c r="H19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J19">
         <v>6</v>
       </c>
       <c r="K19" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M19">
         <v>6</v>
       </c>
       <c r="N19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P19">
         <v>4</v>
@@ -3401,9 +3560,9 @@
       <c r="H26" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3428,98 +3587,98 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -3533,10 +3692,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J4">
         <v>600</v>
@@ -3576,7 +3735,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>